--- a/medicine/Mort/Cimetière_anglais_de_Florence/Cimetière_anglais_de_Florence.xlsx
+++ b/medicine/Mort/Cimetière_anglais_de_Florence/Cimetière_anglais_de_Florence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_anglais_de_Florence</t>
+          <t>Cimetière_anglais_de_Florence</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière des Anglais (en italien, Cimitero degli Inglesi) est  un des cimetières de la ville de Florence. Il est situé piazzale Donatello, le long du  boulevard périphérique (Viali di Circonvallazione) qui contourne le centre historique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_anglais_de_Florence</t>
+          <t>Cimetière_anglais_de_Florence</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1827, l'Église réformée suisse acquiert un terrain sous les fortifications de la ville, près de la Porta a Pinti (limite du Borgo Pinti) sur la route de Fiesole, et le grand-duc Léopold II de Toscane y fait installer un cimetière international œcuménique pour les ressortissants orthodoxes et protestants, qui précédemment, étaient enterrés au cimetière des Anglais de Livourne).
 Carlo Reishammer, alors jeune étudiant en architecture, en définit la structure, de forme polygonale pour s'adapter à la colline sur laquelle il est construit. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_anglais_de_Florence</t>
+          <t>Cimetière_anglais_de_Florence</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Personnalités y ayant leur tombe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Elizabeth Barrett Browning (tombe dessinée par Frederic Leighton),
 Arthur Hugh Clough
